--- a/reports/fruitTrees/apricot/apricot-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/apricot/apricot-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450'</t>
+    <t xml:space="preserve">26.11.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN1</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">ARR-B</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.2.1.3.2' | '14.5.3.2.8'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein' | 'RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190'</t>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
   </si>
   <si>
     <t xml:space="preserve">RR19</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">BGLU18</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400'</t>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
   </si>
   <si>
     <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">AHP</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.2.1.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.signal transducer *(AHP1/2/++)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: cytokinin signal transducer *(AHP1/2/++) &amp; original description: | AT1G80100'</t>
+    <t xml:space="preserve">10.4.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.signal transducer *(AHP1/2/++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: cytokinin signal transducer *(AHP1/2/++) &amp; original description: | AT1G80100</t>
   </si>
   <si>
     <t xml:space="preserve">HP6</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310'</t>
+    <t xml:space="preserve">19.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G22000</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">PEP</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000'</t>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP6</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">LST8</t>
   </si>
   <si>
-    <t xml:space="preserve">27.10.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040'</t>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
   </si>
   <si>
     <t xml:space="preserve">LST8-2</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">EIJP1</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.2.6'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.regulatory protein *(EIJ1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(EIJ1) of effector-triggered immunity (ETI) network &amp; original description: | AT2G24860'</t>
+    <t xml:space="preserve">26.11.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.effector-triggered immunity (ETI) machinery.regulatory protein *(EIJ1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(EIJ1) of effector-triggered immunity (ETI) network &amp; original description: | AT2G24860</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G26020</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">PDF1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.3.3.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020'</t>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2b</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">CML12</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100'</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT2G41100</t>
   </si>
   <si>
     <t xml:space="preserve">TCH3</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">JR1</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
   </si>
   <si>
     <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">ETP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
   </si>
   <si>
     <t xml:space="preserve">ETP2</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">AT3G18980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
   </si>
   <si>
     <t xml:space="preserve">ETP1</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">IPT1,3,4,5,6,7,8</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.1.1' | '50.2.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.biosynthesis.IP-type-cytokinin synthase *(IPT)' | 'Enzyme classification.EC_2 transferases.EC_2-5 transferase transferring alkyl or aryl group, other than methyl group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: IP-type-cytokinin synthase *(IPT) &amp; original description: | AT3G19160' | 'mercator4v7.0: EC_2.5 transferase transferring alkyl or aryl group, other than methyl group &amp; original description: | AT3G19160'</t>
+    <t xml:space="preserve">10.4.1.1 | 50.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.biosynthesis.IP-type-cytokinin synthase *(IPT) | Enzyme classification.EC_2 transferases.EC_2-5 transferase transferring alkyl or aryl group, other than methyl group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: IP-type-cytokinin synthase *(IPT) &amp; original description: | AT3G19160 | mercator4v7.0: EC_2.5 transferase transferring alkyl or aryl group, other than methyl group &amp; original description: | AT3G19160</t>
   </si>
   <si>
     <t xml:space="preserve">IPT8</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">GA3ox</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.1.6' | '50.1.13'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.biosynthesis.gibberellin 3-oxidase' | 'Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: gibberellin 3-oxidase &amp; original description: | AT4G21690' | 'mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G21690'</t>
+    <t xml:space="preserve">10.6.1.6 | 50.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.biosynthesis.gibberellin 3-oxidase | Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: gibberellin 3-oxidase &amp; original description: | AT4G21690 | mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G21690</t>
   </si>
   <si>
     <t xml:space="preserve">GA3OX3</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">AT4G24650</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: IP-type-cytokinin synthase *(IPT) &amp; original description: | AT4G24650' | 'mercator4v7.0: EC_2.5 transferase transferring alkyl or aryl group, other than methyl group &amp; original description: | AT4G24650'</t>
+    <t xml:space="preserve">mercator4v7.0: IP-type-cytokinin synthase *(IPT) &amp; original description: | AT4G24650 | mercator4v7.0: EC_2.5 transferase transferring alkyl or aryl group, other than methyl group &amp; original description: | AT4G24650</t>
   </si>
   <si>
     <t xml:space="preserve">IPT4</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">GAMT1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.3.2' | '50.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT)' | 'Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420'</t>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT1</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">AT5G09976</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G09978</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
   </si>
   <si>
     <t xml:space="preserve">PEP7</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">AT5G09980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP4</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">AT5G09990</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP5</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">AT5G44420</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
   </si>
   <si>
     <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">AT5G44430</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2c</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">CYP707A3</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1.3.1' | '50.1.13'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.abscisic acid.conjugation and degradation.abscisic acid hydroxylase *(CYP707A)' | 'Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: abscisic acid hydroxylase &amp; original description: | AT5G45340' | 'mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT5G45340'</t>
+    <t xml:space="preserve">10.1.3.1 | 50.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.abscisic acid.conjugation and degradation.abscisic acid hydroxylase *(CYP707A) | Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: abscisic acid hydroxylase &amp; original description: | AT5G45340 | mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT5G45340</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G49615</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">LECRK19</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.1.19.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300'</t>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
   </si>
   <si>
     <t xml:space="preserve">LecRK-I.9</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">AT5G64890</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP2</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">AT5G64900</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP1</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">AT5G64905</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP3</t>
@@ -533,15 +533,6 @@
     <t xml:space="preserve">RBC</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1.1.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photosynthesis.calvin cycle.ribulose-1,5-bisphosphat carboxylase/oxygenase (RuBisCo) activity.RuBisCo heterodimer.large subunit'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: large subunit of ribulose-1,5-bisphosphat carboxylase/oxygenase heterodimer &amp; original description: | ATCG00490'</t>
-  </si>
-  <si>
     <t xml:space="preserve">RBCL</t>
   </si>
   <si>
@@ -552,15 +543,6 @@
   </si>
   <si>
     <t xml:space="preserve">clpP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3.2.7.1.1' | '50.3.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.serine peptidase activities.chloroplast Clp-type protease complex.ClpP proteolytic core activities.proteolytic component *(ClpP1)' | 'Enzyme classification.EC_3 hydrolases.EC_3-4 hydrolase acting on peptide bond (peptidase)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: proteolytic component *(ClpP1) of chloroplast Clp-type protease complex &amp; original description: | ATCG00670' | 'mercator4v7.0: EC_3.4 hydrolase acting on peptide bond (peptidase) &amp; original description: | ATCG00670'</t>
   </si>
   <si>
     <t xml:space="preserve">PCLPP</t>
@@ -1769,44 +1751,32 @@
       <c r="C38" t="s">
         <v>172</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" t="s">
         <v>173</v>
-      </c>
-      <c r="E38" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" t="s">
-        <v>176</v>
       </c>
       <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" t="s">
         <v>177</v>
       </c>
-      <c r="B39" t="s">
+      <c r="H39" t="s">
         <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
